--- a/_site/Data/BurnoutCC.xlsx
+++ b/_site/Data/BurnoutCC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -43,7 +43,7 @@
 • Always</t>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022</t>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please rate how often you experience the following statements in relation to your role providing child care. Everything I do at work requires a great deal of effort </t>
@@ -54,6 +54,9 @@
 • Sometimes
 • Often
 • Always</t>
+  </si>
+  <si>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022  01/11/2023-01/18/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please rate how often you experience the following statements in relation to your role providing child care. After a day at work, I find it hard to recover my energy </t>
@@ -495,7 +498,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -521,7 +524,7 @@
     </row>
     <row r="4" ht="159.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -555,7 +558,7 @@
     </row>
     <row r="5" ht="169.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -589,7 +592,7 @@
     </row>
     <row r="6" ht="213.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -623,7 +626,7 @@
     </row>
     <row r="7" ht="102.0" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -657,7 +660,7 @@
     </row>
     <row r="8" ht="153.0" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -691,7 +694,7 @@
     </row>
     <row r="9" ht="153.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>

--- a/_site/Data/BurnoutCC.xlsx
+++ b/_site/Data/BurnoutCC.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhhJqPUIutnlsWuWL/BlbStiExEzQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>Question</t>
   </si>
@@ -43,7 +43,13 @@
 • Always</t>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>National Library of Medicine</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7766078/table/ijerph-17-09495-t0A2/?report=objectonly</t>
+  </si>
+  <si>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please rate how often you experience the following statements in relation to your role providing child care. Everything I do at work requires a great deal of effort </t>
@@ -56,7 +62,26 @@
 • Always</t>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022  01/11/2023-01/18/2023</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7766078/table/ijerph-17-09495-t0A2/?report=objectonly</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022  01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please rate how often you experience the following statements in relation to your role providing child care. After a day at work, I find it hard to recover my energy </t>
@@ -81,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -89,6 +114,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -155,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -169,8 +206,14 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -178,19 +221,19 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -461,10 +504,14 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -489,16 +536,20 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="242.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
+      <c r="A3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -524,15 +575,19 @@
     </row>
     <row r="4" ht="159.75" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -558,15 +613,19 @@
     </row>
     <row r="5" ht="169.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -592,15 +651,19 @@
     </row>
     <row r="6" ht="213.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -625,16 +688,20 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="102.0" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
+      <c r="A7" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -660,15 +727,19 @@
     </row>
     <row r="8" ht="153.0" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -694,15 +765,19 @@
     </row>
     <row r="9" ht="153.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -727,7 +802,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="153.0" customHeight="1">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -755,10 +830,10 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="102.0" customHeight="1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -783,10 +858,10 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="169.5" customHeight="1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -811,10 +886,10 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -839,10 +914,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -867,10 +942,10 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="102.0" customHeight="1">
-      <c r="A15" s="7"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -895,11 +970,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -923,11 +998,11 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -951,11 +1026,11 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -979,11 +1054,11 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -28475,12 +28550,22 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId4" ref="D5"/>
+    <hyperlink r:id="rId5" ref="D6"/>
+    <hyperlink r:id="rId6" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" ref="D9"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/_site/Data/BurnoutCC.xlsx
+++ b/_site/Data/BurnoutCC.xlsx
@@ -49,7 +49,7 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7766078/table/ijerph-17-09495-t0A2/?report=objectonly</t>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please rate how often you experience the following statements in relation to your role providing child care. Everything I do at work requires a great deal of effort </t>
@@ -81,7 +81,7 @@
     </r>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022  01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022  01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please rate how often you experience the following statements in relation to your role providing child care. After a day at work, I find it hard to recover my energy </t>

--- a/_site/Data/BurnoutCC.xlsx
+++ b/_site/Data/BurnoutCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Wp6USRga9B6b4B1doIArCXLPKsc8IpNCaBJshWVro6Y="/>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +49,7 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7766078/table/ijerph-17-09495-t0A2/?report=objectonly</t>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please rate how often you experience the following statements in relation to your role providing child care. Everything I do at work requires a great deal of effort </t>
@@ -81,7 +81,7 @@
     </r>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022  01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022  01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please rate how often you experience the following statements in relation to your role providing child care. After a day at work, I find it hard to recover my energy </t>
